--- a/medicine/Psychotrope/Estrella_Damm/Estrella_Damm.xlsx
+++ b/medicine/Psychotrope/Estrella_Damm/Estrella_Damm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Estrella Damm est une marque de bière pils (ou pilsener) espagnole. Elle a été créée par August Kuentzmann Damm un Alsacien vivant a Barcelone en 1876.
 Elle est produite par la brasserie Damm, basée à Barcelone. Vendue à un tirage de 5,4 %, l'Estrella Damm est également exportée en Norvège, en Suède et au Royaume-Uni dans une version à 4,6 %, ainsi qu'en Australie, au Canada et en Nouvelle-Zélande.
 Cette bière est parfaitement adaptée aux personnes souffrant de la maladie cœliaque. En effet, cette bière porte la mention « sans gluten » et a été élue meilleure bière sans gluten au monde dans sa version Estrella Damm Daura.[réf. nécessaire]
-En 2016, la marque recrute l'acteur français Jean Reno pour son court-métrage Las pequenas cosas[1].
+En 2016, la marque recrute l'acteur français Jean Reno pour son court-métrage Las pequenas cosas.
 </t>
         </is>
       </c>
